--- a/Outputs/QTAR_logReport(C&T).xlsx
+++ b/Outputs/QTAR_logReport(C&T).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Countries</t>
   </si>
@@ -49,373 +49,418 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.96(0.5)</t>
-  </si>
-  <si>
-    <t>0.0007(0.5)</t>
-  </si>
-  <si>
-    <t>-1.49(0.5)</t>
-  </si>
-  <si>
-    <t>3.4(0.6)</t>
-  </si>
-  <si>
-    <t>0.9(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0016(0.7)</t>
-  </si>
-  <si>
-    <t>-1.23(0.4)</t>
-  </si>
-  <si>
-    <t>5.36(0.0)***</t>
-  </si>
-  <si>
-    <t>0.93(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0084(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.57(0.1)*</t>
-  </si>
-  <si>
-    <t>7.19(0.0)***</t>
-  </si>
-  <si>
-    <t>0.89(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0024(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.2(0.0)***</t>
-  </si>
-  <si>
-    <t>3.88(0.0)***</t>
+    <t>0.96(0.507)</t>
+  </si>
+  <si>
+    <t>0.0007(0.569)</t>
+  </si>
+  <si>
+    <t>-1.49(0.48)</t>
+  </si>
+  <si>
+    <t>3.4(0.305)</t>
+  </si>
+  <si>
+    <t>0.9(0.196)</t>
+  </si>
+  <si>
+    <t>-0.0016(0.332)</t>
+  </si>
+  <si>
+    <t>-1.23(0.388)</t>
+  </si>
+  <si>
+    <t>5.36(0.017)**</t>
+  </si>
+  <si>
+    <t>0.93(0.103)</t>
+  </si>
+  <si>
+    <t>-0.0084(0.022)**</t>
+  </si>
+  <si>
+    <t>-1.57(0.332)</t>
+  </si>
+  <si>
+    <t>7.19(0.003)***</t>
+  </si>
+  <si>
+    <t>0.89(0.047)**</t>
+  </si>
+  <si>
+    <t>-0.0024(0.096)*</t>
+  </si>
+  <si>
+    <t>-3.2(0.095)*</t>
+  </si>
+  <si>
+    <t>3.88(0.236)</t>
   </si>
   <si>
     <t>1.1(1.0)</t>
   </si>
   <si>
-    <t>0.0072(0.9)</t>
+    <t>0.0072(0.949)</t>
   </si>
   <si>
     <t>3.04(1.0)</t>
   </si>
   <si>
-    <t>6.38(0.0)***</t>
-  </si>
-  <si>
-    <t>0.95(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0007(0.3)</t>
-  </si>
-  <si>
-    <t>-3.4(0.1)*</t>
-  </si>
-  <si>
-    <t>0.89(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0032(0.2)</t>
-  </si>
-  <si>
-    <t>-3.71(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0072(0.0)***</t>
-  </si>
-  <si>
-    <t>-6.92(0.0)***</t>
-  </si>
-  <si>
-    <t>0.92(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.002(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.88(0.0)***</t>
+    <t>6.38(0.006)***</t>
+  </si>
+  <si>
+    <t>0.95(0.159)</t>
+  </si>
+  <si>
+    <t>-0.0007(0.33)</t>
+  </si>
+  <si>
+    <t>-3.4(0.079)*</t>
+  </si>
+  <si>
+    <t>0.89(0.024)**</t>
+  </si>
+  <si>
+    <t>-0.0032(0.071)*</t>
+  </si>
+  <si>
+    <t>-3.71(0.025)**</t>
+  </si>
+  <si>
+    <t>0.93(0.013)**</t>
+  </si>
+  <si>
+    <t>-0.0072(0.001)***</t>
+  </si>
+  <si>
+    <t>-6.92(0.001)***</t>
+  </si>
+  <si>
+    <t>0.92(0.028)**</t>
+  </si>
+  <si>
+    <t>-0.002(0.06)*</t>
+  </si>
+  <si>
+    <t>-3.88(0.069)*</t>
   </si>
   <si>
     <t>1.07(1.0)</t>
   </si>
   <si>
-    <t>0.0045(0.8)</t>
+    <t>0.0045(0.946)</t>
   </si>
   <si>
     <t>3.93(1.0)</t>
   </si>
   <si>
-    <t>0.99(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.6)</t>
-  </si>
-  <si>
-    <t>-0.81(0.9)</t>
-  </si>
-  <si>
-    <t>0.89(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0009(0.5)</t>
-  </si>
-  <si>
-    <t>-4.36(0.0)***</t>
-  </si>
-  <si>
-    <t>0.94(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.006(0.0)***</t>
+    <t>0.99(0.776)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.479)</t>
+  </si>
+  <si>
+    <t>-0.81(0.814)</t>
+  </si>
+  <si>
+    <t>0.89(0.015)**</t>
+  </si>
+  <si>
+    <t>-0.0009(0.293)</t>
+  </si>
+  <si>
+    <t>-4.36(0.012)**</t>
+  </si>
+  <si>
+    <t>0.94(0.006)***</t>
+  </si>
+  <si>
+    <t>-0.006(0.002)***</t>
   </si>
   <si>
     <t>-7.19(0.0)***</t>
   </si>
   <si>
-    <t>-0.0021(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.57(0.0)***</t>
-  </si>
-  <si>
-    <t>1.02(1.0)</t>
-  </si>
-  <si>
-    <t>0.0009(0.6)</t>
-  </si>
-  <si>
-    <t>1.25(1.0)</t>
-  </si>
-  <si>
-    <t>0.99(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.6)</t>
-  </si>
-  <si>
-    <t>-0.55(0.9)</t>
-  </si>
-  <si>
-    <t>0.91(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0014(0.2)</t>
-  </si>
-  <si>
-    <t>-4.81(0.0)***</t>
-  </si>
-  <si>
-    <t>0.95(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0058(0.0)***</t>
-  </si>
-  <si>
-    <t>-5.58(0.0)***</t>
-  </si>
-  <si>
-    <t>0.94(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.39(0.0)***</t>
-  </si>
-  <si>
-    <t>1.01(0.9)</t>
-  </si>
-  <si>
-    <t>0.002(0.8)</t>
-  </si>
-  <si>
-    <t>1.04(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.4)</t>
-  </si>
-  <si>
-    <t>-0.43(0.9)</t>
-  </si>
-  <si>
-    <t>0.9(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0019(0.1)*</t>
-  </si>
-  <si>
-    <t>-5.36(0.0)***</t>
-  </si>
-  <si>
-    <t>0.97(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0025(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.88(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0027(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.81(0.1)*</t>
-  </si>
-  <si>
-    <t>0.99(0.4)</t>
-  </si>
-  <si>
-    <t>0.0004(0.5)</t>
-  </si>
-  <si>
-    <t>-1.51(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.2)</t>
-  </si>
-  <si>
-    <t>-0.42(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0028(0.0)***</t>
-  </si>
-  <si>
-    <t>-4.03(0.0)***</t>
-  </si>
-  <si>
-    <t>0.97(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0023(0.1)*</t>
-  </si>
-  <si>
-    <t>-3.3(0.1)*</t>
-  </si>
-  <si>
-    <t>0.92(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0032(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.87(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0(0.5)</t>
-  </si>
-  <si>
-    <t>-2.84(0.0)***</t>
-  </si>
-  <si>
-    <t>1.0(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0009(0.2)</t>
-  </si>
-  <si>
-    <t>0.01(1.0)</t>
-  </si>
-  <si>
-    <t>0.92(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0046(0.0)***</t>
-  </si>
-  <si>
-    <t>-3.46(0.1)*</t>
-  </si>
-  <si>
-    <t>0.98(0.6)</t>
-  </si>
-  <si>
-    <t>-1.15(0.7)</t>
-  </si>
-  <si>
-    <t>-0.001(0.2)</t>
-  </si>
-  <si>
-    <t>-1.88(0.5)</t>
-  </si>
-  <si>
-    <t>0.96(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0022(0.0)***</t>
-  </si>
-  <si>
-    <t>-5.21(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0009(0.3)</t>
-  </si>
-  <si>
-    <t>1.06(1.0)</t>
+    <t>0.94(0.054)*</t>
+  </si>
+  <si>
+    <t>-0.0021(0.035)**</t>
+  </si>
+  <si>
+    <t>-3.57(0.105)</t>
+  </si>
+  <si>
+    <t>1.02(0.996)</t>
+  </si>
+  <si>
+    <t>0.0009(0.681)</t>
+  </si>
+  <si>
+    <t>1.25(0.996)</t>
+  </si>
+  <si>
+    <t>0.99(0.855)</t>
+  </si>
+  <si>
+    <t>-0.0002(0.447)</t>
+  </si>
+  <si>
+    <t>-0.55(0.889)</t>
+  </si>
+  <si>
+    <t>0.91(0.021)**</t>
+  </si>
+  <si>
+    <t>-0.0014(0.213)</t>
+  </si>
+  <si>
+    <t>-4.81(0.003)***</t>
+  </si>
+  <si>
+    <t>0.95(0.01)***</t>
+  </si>
+  <si>
+    <t>-0.0058(0.001)***</t>
+  </si>
+  <si>
+    <t>-5.58(0.004)***</t>
+  </si>
+  <si>
+    <t>0.94(0.075)*</t>
+  </si>
+  <si>
+    <t>-0.0021(0.043)**</t>
+  </si>
+  <si>
+    <t>-3.39(0.145)</t>
+  </si>
+  <si>
+    <t>1.01(0.995)</t>
+  </si>
+  <si>
+    <t>0.002(0.926)</t>
+  </si>
+  <si>
+    <t>1.04(0.998)</t>
+  </si>
+  <si>
+    <t>0.99(0.894)</t>
+  </si>
+  <si>
+    <t>-0.0002(0.443)</t>
+  </si>
+  <si>
+    <t>-0.43(0.914)</t>
+  </si>
+  <si>
+    <t>0.9(0.014)**</t>
+  </si>
+  <si>
+    <t>-0.0019(0.126)</t>
+  </si>
+  <si>
+    <t>-5.36(0.003)***</t>
+  </si>
+  <si>
+    <t>0.97(0.181)</t>
+  </si>
+  <si>
+    <t>-0.0025(0.031)**</t>
+  </si>
+  <si>
+    <t>-2.88(0.126)</t>
+  </si>
+  <si>
+    <t>0.94(0.135)</t>
+  </si>
+  <si>
+    <t>-0.0027(0.032)**</t>
+  </si>
+  <si>
+    <t>-2.81(0.282)</t>
+  </si>
+  <si>
+    <t>0.99(0.656)</t>
+  </si>
+  <si>
+    <t>0.0004(0.623)</t>
+  </si>
+  <si>
+    <t>-1.51(0.574)</t>
+  </si>
+  <si>
+    <t>0.99(0.875)</t>
+  </si>
+  <si>
+    <t>-0.0002(0.431)</t>
+  </si>
+  <si>
+    <t>-0.42(0.899)</t>
+  </si>
+  <si>
+    <t>0.91(0.031)**</t>
+  </si>
+  <si>
+    <t>-0.0028(0.046)**</t>
+  </si>
+  <si>
+    <t>-4.03(0.015)**</t>
+  </si>
+  <si>
+    <t>0.97(0.163)</t>
+  </si>
+  <si>
+    <t>-0.0023(0.057)*</t>
+  </si>
+  <si>
+    <t>-3.3(0.085)*</t>
+  </si>
+  <si>
+    <t>0.92(0.054)*</t>
+  </si>
+  <si>
+    <t>-0.0032(0.013)**</t>
+  </si>
+  <si>
+    <t>-3.87(0.122)</t>
+  </si>
+  <si>
+    <t>0.98(0.338)</t>
+  </si>
+  <si>
+    <t>0.0(0.524)</t>
+  </si>
+  <si>
+    <t>-2.84(0.164)</t>
+  </si>
+  <si>
+    <t>1.0(0.958)</t>
+  </si>
+  <si>
+    <t>-0.0009(0.238)</t>
+  </si>
+  <si>
+    <t>0.01(0.958)</t>
+  </si>
+  <si>
+    <t>0.92(0.034)**</t>
+  </si>
+  <si>
+    <t>-0.0046(0.005)***</t>
+  </si>
+  <si>
+    <t>-3.46(0.041)**</t>
+  </si>
+  <si>
+    <t>0.98(0.537)</t>
+  </si>
+  <si>
+    <t>-0.0019(0.115)</t>
+  </si>
+  <si>
+    <t>-1.15(0.634)</t>
+  </si>
+  <si>
+    <t>0.96(0.312)</t>
+  </si>
+  <si>
+    <t>-0.001(0.151)</t>
+  </si>
+  <si>
+    <t>-1.88(0.462)</t>
+  </si>
+  <si>
+    <t>0.96(0.091)*</t>
+  </si>
+  <si>
+    <t>-0.0022(0.049)**</t>
+  </si>
+  <si>
+    <t>-5.21(0.004)***</t>
+  </si>
+  <si>
+    <t>-0.0009(0.275)</t>
+  </si>
+  <si>
+    <t>1.06(0.99)</t>
+  </si>
+  <si>
+    <t>0.91(0.036)**</t>
   </si>
   <si>
     <t>-0.0064(0.0)***</t>
   </si>
   <si>
-    <t>-3.02(0.0)***</t>
-  </si>
-  <si>
-    <t>1.01(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0011(0.3)</t>
-  </si>
-  <si>
-    <t>0.96(1.0)</t>
-  </si>
-  <si>
-    <t>0.0(0.6)</t>
-  </si>
-  <si>
-    <t>-0.35(1.0)</t>
-  </si>
-  <si>
-    <t>-5.03(0.0)***</t>
+    <t>-3.02(0.042)**</t>
+  </si>
+  <si>
+    <t>1.01(0.997)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.29)</t>
+  </si>
+  <si>
+    <t>0.96(0.994)</t>
+  </si>
+  <si>
+    <t>0.99(0.866)</t>
+  </si>
+  <si>
+    <t>0.0(0.361)</t>
+  </si>
+  <si>
+    <t>-0.35(0.911)</t>
+  </si>
+  <si>
+    <t>0.94(0.078)*</t>
+  </si>
+  <si>
+    <t>-0.0032(0.031)**</t>
+  </si>
+  <si>
+    <t>-5.03(0.003)***</t>
   </si>
   <si>
     <t>1.03(1.0)</t>
   </si>
   <si>
-    <t>-0.0013(0.3)</t>
-  </si>
-  <si>
-    <t>1.28(1.0)</t>
-  </si>
-  <si>
-    <t>0.97(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0098(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.54(0.7)</t>
-  </si>
-  <si>
-    <t>-0.0011(0.2)</t>
-  </si>
-  <si>
-    <t>1.07(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0011(0.4)</t>
-  </si>
-  <si>
-    <t>0.25(1.0)</t>
-  </si>
-  <si>
-    <t>0.9(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0044(0.1)*</t>
+    <t>-0.0013(0.272)</t>
+  </si>
+  <si>
+    <t>1.28(0.995)</t>
+  </si>
+  <si>
+    <t>0.97(0.569)</t>
+  </si>
+  <si>
+    <t>-0.0098(0.002)***</t>
+  </si>
+  <si>
+    <t>-0.54(0.661)</t>
+  </si>
+  <si>
+    <t>1.02(0.982)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.314)</t>
+  </si>
+  <si>
+    <t>1.07(0.988)</t>
+  </si>
+  <si>
+    <t>1.01(0.974)</t>
+  </si>
+  <si>
+    <t>-0.0011(0.246)</t>
+  </si>
+  <si>
+    <t>0.25(0.97)</t>
+  </si>
+  <si>
+    <t>0.9(0.075)*</t>
+  </si>
+  <si>
+    <t>-0.0044(0.063)*</t>
   </si>
   <si>
     <t>-6.38(0.0)***</t>
@@ -831,25 +876,25 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -864,25 +909,25 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -897,25 +942,25 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -941,25 +986,25 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -974,25 +1019,25 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1007,25 +1052,25 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1048,28 +1093,28 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1081,28 +1126,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1114,28 +1159,28 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1158,28 +1203,28 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1191,28 +1236,28 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1224,28 +1269,28 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1268,28 +1313,28 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1301,28 +1346,28 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1334,28 +1379,28 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11">
